--- a/biology/Botanique/Vulpiella_stipoides/Vulpiella_stipoides.xlsx
+++ b/biology/Botanique/Vulpiella_stipoides/Vulpiella_stipoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vulpiella stipoides est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire du bassin méditerranéen. C'est l'unique espèce du genre Vulpiella (genre monotypique).
 Ce sont des plantes herbacées, annuelles, aux tiges géniculées ascendantes ou décombantes, pouvant atteindre 40 cm de long et aux inflorescences en panicules.
@@ -514,11 +526,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (4 juin 2018)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (4 juin 2018) :
 Brachypodium  tenue (Tineo) Tineo
 Bromus sabulosus  Guss.
-Bromus stipoides  L.[3]
+Bromus stipoides  L.
 Bromus tenuis  Tineo
 Cutandia incrassata  (Parl.) Trab.
 Cutandia letourneuxii  (Asch. ex Durand &amp; Barratte) F. Herm.
@@ -526,7 +543,7 @@
 Festuca incrassata  Salzm. ex Loisel.
 Festuca letourneuxii  (E.A.Durand) Asch. ex E.A.Durand &amp; Barratte
 Festuca simplex  Hornem. ex Steud.
-Festuca stipoides (L.)  Desf.[3]
+Festuca stipoides (L.)  Desf.
 Festuca tenuis (Trin.)  Nyman
 Loretia tenuis (Tineo)  Hack. ex Willk.
 Vulpia incrassata  Parl.
@@ -536,8 +553,43 @@
 Vulpiella incrassata  (Parl.) Andr.
 Vulpiella stipoides subsp.  letourneuxii (Asch.) H.Scholz
 Vulpiella tenuis  (Tineo) Kerguélen
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (4 juin 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vulpiella_stipoides</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vulpiella_stipoides</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (4 juin 2018) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèces :
 Vulpiella stipoides subsp. letourneuxii (Asch. ex Durand &amp; Barratte) H. Scholz
 Vulpiella stipoides subsp. tenuis (Tineo) H. Scholz
